--- a/data/xls/2011-03-01/20110601-EERR8-repweb-Oct10-Mar11-Sanofi-aventis.xlsx
+++ b/data/xls/2011-03-01/20110601-EERR8-repweb-Oct10-Mar11-Sanofi-aventis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="34800" windowHeight="22000"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -18988,8 +18988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A563" sqref="A563:XFD1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
